--- a/data/case1/19/Plm2_1.xlsx
+++ b/data/case1/19/Plm2_1.xlsx
@@ -56,264 +56,264 @@
   <dimension ref="A1:B32"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="1" max="1" width="15.7109375" customWidth="true"/>
+    <col min="2" max="2" width="16.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.43301382085444118</v>
+        <v>-0.31139146475743473</v>
       </c>
       <c r="B1" s="0">
-        <v>0.43189863072879575</v>
+        <v>0.31079304472140734</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27057766833931218</v>
+        <v>-0.26468698808880475</v>
       </c>
       <c r="B2" s="0">
-        <v>0.26793117051176374</v>
+        <v>0.26232734122753243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.16498060561274386</v>
+        <v>-0.15938149766746434</v>
       </c>
       <c r="B3" s="0">
-        <v>0.16425997170902562</v>
+        <v>0.15877212126923368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15225997184488449</v>
+        <v>-0.1467721215256681</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15162495808257859</v>
+        <v>0.1462368772724858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14562495856492674</v>
+        <v>-0.14023687833205667</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14436684631419272</v>
+        <v>0.13917605005602773</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.058406338967089688</v>
+        <v>-0.066604282504426404</v>
       </c>
       <c r="B6" s="0">
-        <v>0.0583638320748876</v>
+        <v>0.066549681039887343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.038363832670219367</v>
+        <v>-0.046549682303968609</v>
       </c>
       <c r="B7" s="0">
-        <v>0.038292858061476309</v>
+        <v>0.046444406114265036</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.018292858659690658</v>
+        <v>-0.026444407384714097</v>
       </c>
       <c r="B8" s="0">
-        <v>0.018249818209573831</v>
+        <v>0.026367098388276666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062361460960058679</v>
+        <v>-0.020367099491266139</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062028736524885275</v>
+        <v>0.020302046205150859</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056028737034850451</v>
+        <v>-0.014302047312249044</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055982868848040823</v>
+        <v>0.014301061033762608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051482869348653537</v>
+        <v>-0.0098010621227366812</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051403322065283419</v>
+        <v>0.0097841187572207389</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045403322578323024</v>
+        <v>0.036930371136976614</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045154025329151359</v>
+        <v>-0.037072044048649833</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039154025850285379</v>
+        <v>0.043072042953443024</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039086256817446596</v>
+        <v>-0.043138921519107143</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027086257382856083</v>
+        <v>-0.0054339783275558773</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053659939237029</v>
+        <v>0.0054328761463331432</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.021053660464733781</v>
+        <v>0.00056712276334103251</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028021919410556</v>
+        <v>-0.00056742642247264996</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028022446684108</v>
+        <v>0.0065674253323737553</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004347059664358</v>
+        <v>-0.0065717681277801532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090043475892409575</v>
+        <v>0.012571767039563753</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999994489131652</v>
+        <v>-0.012578419747601544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.15132096287218033</v>
+        <v>-0.036106057690041382</v>
       </c>
       <c r="B18" s="0">
-        <v>0.15108212970313417</v>
+        <v>0.036096068493023381</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.049769861878874888</v>
+        <v>-0.027096069538134593</v>
       </c>
       <c r="B19" s="0">
-        <v>0.049535123439004014</v>
+        <v>0.027012917132651193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013563054259052</v>
+        <v>-0.018012918186750326</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004285783352003</v>
+        <v>0.01800424824834046</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042862705219662</v>
+        <v>-0.0090042493036843751</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999995122971299</v>
+        <v>0.008999998943906462</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.09395056538950719</v>
+        <v>-0.093945844634410136</v>
       </c>
       <c r="B22" s="0">
-        <v>0.09363671434017462</v>
+        <v>0.093634198710731198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084636714835124138</v>
+        <v>-0.084634199793451437</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084127221555900356</v>
+        <v>0.084126507170465992</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042127222288899979</v>
+        <v>-0.042126508675643493</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999262865906</v>
+        <v>0.041999998487141532</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.079960507843772177</v>
+        <v>-0.066571768640198314</v>
       </c>
       <c r="B25" s="0">
-        <v>0.079854651563930901</v>
+        <v>0.066517492472378592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.07385465206221653</v>
+        <v>-0.094256188817503528</v>
       </c>
       <c r="B26" s="0">
-        <v>0.073724283312593286</v>
+        <v>0.094080469953262025</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.067724283813072272</v>
+        <v>-0.088080471049001741</v>
       </c>
       <c r="B27" s="0">
-        <v>0.067299983061347657</v>
+        <v>0.087489516657375699</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.061299983570523686</v>
+        <v>-0.081489517776594411</v>
       </c>
       <c r="B28" s="0">
-        <v>0.061028083627856944</v>
+        <v>0.081101519632188257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.049028084184859821</v>
+        <v>-0.069101520839888408</v>
       </c>
       <c r="B29" s="0">
-        <v>0.048919120526992543</v>
+        <v>0.068930891669829464</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.028919121142517934</v>
+        <v>-0.048930892984421437</v>
       </c>
       <c r="B30" s="0">
-        <v>0.028793430339462134</v>
+        <v>0.048640293854009808</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.027019099650368972</v>
+        <v>-0.027017970624141796</v>
       </c>
       <c r="B31" s="0">
-        <v>0.027000682420098343</v>
+        <v>0.027000539227998388</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060006830469729877</v>
+        <v>-0.0060005405682739266</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999994773498599</v>
+        <v>0.0059999988449481734</v>
       </c>
     </row>
   </sheetData>
